--- a/report/Tables/Coefs_Oceanographic.xlsx
+++ b/report/Tables/Coefs_Oceanographic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megan.feddern/Documents/GitHub/yellowtail_2025/report/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57903FBA-95E6-794E-B6F1-9B36BA429599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182DBE4A-F7AD-C748-AAE0-77D8501A0C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39820" yWindow="5160" windowWidth="27240" windowHeight="16440" xr2:uid="{A61E2D6B-D2FB-AD4E-9E09-441F6E67AF08}"/>
+    <workbookView xWindow="40140" yWindow="2880" windowWidth="27240" windowHeight="16440" xr2:uid="{A61E2D6B-D2FB-AD4E-9E09-441F6E67AF08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>t value</t>
   </si>
   <si>
-    <t>Pr(&gt;|t|) </t>
-  </si>
-  <si>
     <t>Intercept</t>
   </si>
   <si>
@@ -85,20 +82,23 @@
     <t>s(ONIpjuv)</t>
   </si>
   <si>
-    <t>0.0054**</t>
-  </si>
-  <si>
     <t>Covariate</t>
   </si>
   <si>
     <t>Smooth</t>
+  </si>
+  <si>
+    <t>0.0054*</t>
+  </si>
+  <si>
+    <t>p-value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +118,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,10 +148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,128 +471,128 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>-0.78</v>
+        <v>1.93</v>
       </c>
       <c r="C2" s="2">
-        <v>6.3E-2</v>
+        <v>1.99</v>
       </c>
       <c r="D2" s="2">
-        <v>-1.1499999999999999</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.27</v>
+        <v>4.76</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="C4" s="2">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="D4" s="2">
-        <v>4.76</v>
+        <v>3.43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="C5" s="2">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D5" s="2">
-        <v>2.31</v>
+        <v>8.51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>1.72</v>
+        <v>-0.78</v>
       </c>
       <c r="C7" s="2">
-        <v>1.92</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.51</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>6.3E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
